--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1879777.757971339</v>
+        <v>-1882636.566125588</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>28.19014749234975</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>255.0853779233022</v>
       </c>
       <c r="X2" t="n">
-        <v>224.6792008748445</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>255.0853779233022</v>
+        <v>84.26968106269072</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>31.94163381571619</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>61.21410256842241</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>65.92991264744124</v>
       </c>
       <c r="U4" t="n">
-        <v>255.0853779233022</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>255.0853779233022</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>103.6795774081555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>219.4450108596166</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015063</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.2792495146818396</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>115.0783814354791</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>39.7870685936972</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>158.0048358234249</v>
+        <v>238.1741891584253</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.6578039426845</v>
+        <v>198.334319472273</v>
       </c>
       <c r="H8" t="n">
-        <v>302.1461261669078</v>
+        <v>302.1461261669076</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>69.95458801850472</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>52.44532368891753</v>
+        <v>125.9611458040276</v>
       </c>
       <c r="T8" t="n">
-        <v>207.140152850729</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0540582220405</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>135.3933057711207</v>
       </c>
       <c r="H9" t="n">
-        <v>93.40050789710149</v>
+        <v>93.40050789710139</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>22.2511967641075</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>135.4588498516409</v>
+        <v>135.4588498516407</v>
       </c>
       <c r="T9" t="n">
-        <v>192.3040082153012</v>
+        <v>58.0644215855452</v>
       </c>
       <c r="U9" t="n">
-        <v>113.8246888342452</v>
+        <v>225.8130786999163</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>85.37021424525034</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3559876391771</v>
       </c>
       <c r="H10" t="n">
-        <v>147.6906097669176</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>103.7782182538339</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.9597157186236</v>
       </c>
       <c r="U10" t="n">
         <v>286.2298479899846</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>143.2378652307632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>45.17596778974854</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>47.49734780286086</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>21.35866177150533</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>239.0860809359004</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2135,10 +2135,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.453391420151112</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="23">
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>25.52471385612597</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45.97180554613968</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710053</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>278.0688281361897</v>
+        <v>306.5437245931087</v>
       </c>
       <c r="C2" t="n">
-        <v>278.0688281361897</v>
+        <v>306.5437245931087</v>
       </c>
       <c r="D2" t="n">
-        <v>20.40683023386418</v>
+        <v>48.88172669078313</v>
       </c>
       <c r="E2" t="n">
-        <v>20.40683023386418</v>
+        <v>48.88172669078313</v>
       </c>
       <c r="F2" t="n">
-        <v>20.40683023386418</v>
+        <v>48.88172669078313</v>
       </c>
       <c r="G2" t="n">
-        <v>20.40683023386418</v>
+        <v>48.88172669078313</v>
       </c>
       <c r="H2" t="n">
-        <v>20.40683023386418</v>
+        <v>48.88172669078313</v>
       </c>
       <c r="I2" t="n">
         <v>20.40683023386418</v>
       </c>
       <c r="J2" t="n">
-        <v>41.64108022724748</v>
+        <v>101.5286049718923</v>
       </c>
       <c r="K2" t="n">
-        <v>124.2042348018398</v>
+        <v>184.0917595464847</v>
       </c>
       <c r="L2" t="n">
-        <v>263.532890643093</v>
+        <v>323.4204153877379</v>
       </c>
       <c r="M2" t="n">
-        <v>450.2323034685007</v>
+        <v>510.1198282131455</v>
       </c>
       <c r="N2" t="n">
-        <v>644.5665163604831</v>
+        <v>704.4540411051279</v>
       </c>
       <c r="O2" t="n">
         <v>874.6230664220874</v>
@@ -4355,25 +4355,25 @@
         <v>1020.341511693209</v>
       </c>
       <c r="S2" t="n">
-        <v>1020.341511693209</v>
+        <v>864.126474190037</v>
       </c>
       <c r="T2" t="n">
-        <v>1020.341511693209</v>
+        <v>649.3266124577481</v>
       </c>
       <c r="U2" t="n">
-        <v>1020.341511693209</v>
+        <v>649.3266124577481</v>
       </c>
       <c r="V2" t="n">
-        <v>1020.341511693209</v>
+        <v>649.3266124577481</v>
       </c>
       <c r="W2" t="n">
-        <v>762.6795137908834</v>
+        <v>391.6646145554225</v>
       </c>
       <c r="X2" t="n">
-        <v>535.7308260385153</v>
+        <v>391.6646145554225</v>
       </c>
       <c r="Y2" t="n">
-        <v>278.0688281361897</v>
+        <v>306.5437245931087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>475.3995297654499</v>
+        <v>227.1241360965227</v>
       </c>
       <c r="C3" t="n">
-        <v>475.3995297654499</v>
+        <v>52.67110681539569</v>
       </c>
       <c r="D3" t="n">
-        <v>326.4651201041986</v>
+        <v>52.67110681539569</v>
       </c>
       <c r="E3" t="n">
-        <v>167.2276650987431</v>
+        <v>52.67110681539569</v>
       </c>
       <c r="F3" t="n">
-        <v>167.2276650987431</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="G3" t="n">
-        <v>167.2276650987431</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H3" t="n">
-        <v>66.31168724354769</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I3" t="n">
         <v>20.40683023386418</v>
@@ -4410,7 +4410,7 @@
         <v>20.40683023386418</v>
       </c>
       <c r="K3" t="n">
-        <v>160.1411717808045</v>
+        <v>88.01464989722122</v>
       </c>
       <c r="L3" t="n">
         <v>297.3707697964985</v>
@@ -4431,28 +4431,28 @@
         <v>1020.341511693209</v>
       </c>
       <c r="R3" t="n">
-        <v>999.2296120953957</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S3" t="n">
-        <v>999.2296120953957</v>
+        <v>870.8747225558437</v>
       </c>
       <c r="T3" t="n">
-        <v>999.2296120953957</v>
+        <v>870.8747225558437</v>
       </c>
       <c r="U3" t="n">
-        <v>999.2296120953957</v>
+        <v>642.7359350670094</v>
       </c>
       <c r="V3" t="n">
-        <v>999.2296120953957</v>
+        <v>642.7359350670094</v>
       </c>
       <c r="W3" t="n">
-        <v>744.992255367194</v>
+        <v>642.7359350670094</v>
       </c>
       <c r="X3" t="n">
-        <v>683.1598285304037</v>
+        <v>434.8844348614766</v>
       </c>
       <c r="Y3" t="n">
-        <v>475.3995297654499</v>
+        <v>227.1241360965227</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.6614733340991</v>
+        <v>361.1429060980784</v>
       </c>
       <c r="C4" t="n">
-        <v>174.6614733340991</v>
+        <v>361.1429060980784</v>
       </c>
       <c r="D4" t="n">
-        <v>174.6614733340991</v>
+        <v>361.1429060980784</v>
       </c>
       <c r="E4" t="n">
-        <v>174.6614733340991</v>
+        <v>361.1429060980784</v>
       </c>
       <c r="F4" t="n">
-        <v>174.6614733340991</v>
+        <v>361.1429060980784</v>
       </c>
       <c r="G4" t="n">
-        <v>174.6614733340991</v>
+        <v>192.5360610934617</v>
       </c>
       <c r="H4" t="n">
-        <v>20.40683023386418</v>
+        <v>38.2814179932268</v>
       </c>
       <c r="I4" t="n">
-        <v>20.40683023386418</v>
+        <v>38.2814179932268</v>
       </c>
       <c r="J4" t="n">
         <v>20.40683023386418</v>
@@ -4510,28 +4510,28 @@
         <v>1020.341511693209</v>
       </c>
       <c r="R4" t="n">
-        <v>1020.341511693209</v>
+        <v>889.8635504126116</v>
       </c>
       <c r="S4" t="n">
-        <v>1020.341511693209</v>
+        <v>682.423265665017</v>
       </c>
       <c r="T4" t="n">
-        <v>794.7123150055739</v>
+        <v>615.8273943039652</v>
       </c>
       <c r="U4" t="n">
-        <v>537.0503171032484</v>
+        <v>615.8273943039652</v>
       </c>
       <c r="V4" t="n">
-        <v>537.0503171032484</v>
+        <v>361.1429060980784</v>
       </c>
       <c r="W4" t="n">
-        <v>279.3883192009229</v>
+        <v>361.1429060980784</v>
       </c>
       <c r="X4" t="n">
-        <v>279.3883192009229</v>
+        <v>361.1429060980784</v>
       </c>
       <c r="Y4" t="n">
-        <v>174.6614733340991</v>
+        <v>361.1429060980784</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.477863438847</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716689</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716689</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>300.438579740743</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356496</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V5" t="n">
-        <v>788.477863438847</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="W5" t="n">
-        <v>788.477863438847</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="X5" t="n">
-        <v>788.477863438847</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.477863438847</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>471.7187438561812</v>
+        <v>471.0283840154698</v>
       </c>
       <c r="C6" t="n">
-        <v>471.7187438561812</v>
+        <v>296.5753547343428</v>
       </c>
       <c r="D6" t="n">
-        <v>471.7187438561812</v>
+        <v>296.5753547343428</v>
       </c>
       <c r="E6" t="n">
-        <v>312.4812888507257</v>
+        <v>137.3378997288873</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166548</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166548</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>887.8833378166548</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>847.6943796412031</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W6" t="n">
-        <v>847.6943796412031</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X6" t="n">
-        <v>847.6943796412031</v>
+        <v>847.0040198004917</v>
       </c>
       <c r="Y6" t="n">
-        <v>639.9340808762493</v>
+        <v>639.2437210355379</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>628.8770191727612</v>
+        <v>352.8040081617345</v>
       </c>
       <c r="C7" t="n">
-        <v>459.9408362448543</v>
+        <v>352.8040081617345</v>
       </c>
       <c r="D7" t="n">
-        <v>459.9408362448543</v>
+        <v>352.8040081617345</v>
       </c>
       <c r="E7" t="n">
-        <v>459.9408362448543</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="F7" t="n">
-        <v>313.0508887469439</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G7" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4732,13 +4732,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.182233022705</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4750,25 +4750,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="U7" t="n">
-        <v>895.2546757399392</v>
+        <v>607.4884963676213</v>
       </c>
       <c r="V7" t="n">
-        <v>895.2546757399392</v>
+        <v>352.8040081617345</v>
       </c>
       <c r="W7" t="n">
-        <v>628.8770191727612</v>
+        <v>352.8040081617345</v>
       </c>
       <c r="X7" t="n">
-        <v>628.8770191727612</v>
+        <v>352.8040081617345</v>
       </c>
       <c r="Y7" t="n">
-        <v>628.8770191727612</v>
+        <v>352.8040081617345</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1538.827489363832</v>
+        <v>989.97001820029</v>
       </c>
       <c r="C8" t="n">
-        <v>1538.827489363832</v>
+        <v>989.97001820029</v>
       </c>
       <c r="D8" t="n">
-        <v>1180.561790757082</v>
+        <v>631.7043195935396</v>
       </c>
       <c r="E8" t="n">
-        <v>1180.561790757082</v>
+        <v>631.7043195935396</v>
       </c>
       <c r="F8" t="n">
-        <v>769.5758859674741</v>
+        <v>624.7588188443361</v>
       </c>
       <c r="G8" t="n">
-        <v>353.7599223890049</v>
+        <v>424.4211224076968</v>
       </c>
       <c r="H8" t="n">
-        <v>48.56181514970404</v>
+        <v>119.2230151683961</v>
       </c>
       <c r="I8" t="n">
-        <v>48.56181514970404</v>
+        <v>48.56181514970449</v>
       </c>
       <c r="J8" t="n">
-        <v>175.5919586551131</v>
+        <v>175.5919586551152</v>
       </c>
       <c r="K8" t="n">
-        <v>416.7157328480253</v>
+        <v>416.7157328480294</v>
       </c>
       <c r="L8" t="n">
-        <v>752.7528582148857</v>
+        <v>752.7528582148923</v>
       </c>
       <c r="M8" t="n">
-        <v>1158.32834505191</v>
+        <v>1158.32834505192</v>
       </c>
       <c r="N8" t="n">
-        <v>1575.080275660908</v>
+        <v>1575.080275660921</v>
       </c>
       <c r="O8" t="n">
-        <v>1955.272044794116</v>
+        <v>1955.272044794133</v>
       </c>
       <c r="P8" t="n">
-        <v>2245.255922842903</v>
+        <v>2245.255922842923</v>
       </c>
       <c r="Q8" t="n">
-        <v>2414.848991985949</v>
+        <v>2414.848991985971</v>
       </c>
       <c r="R8" t="n">
-        <v>2428.090757485202</v>
+        <v>2428.090757485224</v>
       </c>
       <c r="S8" t="n">
-        <v>2375.115683051952</v>
+        <v>2300.857276875096</v>
       </c>
       <c r="T8" t="n">
-        <v>2165.883205424953</v>
+        <v>2300.857276875096</v>
       </c>
       <c r="U8" t="n">
-        <v>1912.293247624912</v>
+        <v>2047.267319075055</v>
       </c>
       <c r="V8" t="n">
-        <v>1912.293247624912</v>
+        <v>1716.204431731484</v>
       </c>
       <c r="W8" t="n">
-        <v>1912.293247624912</v>
+        <v>1363.43577646137</v>
       </c>
       <c r="X8" t="n">
-        <v>1538.827489363832</v>
+        <v>989.97001820029</v>
       </c>
       <c r="Y8" t="n">
-        <v>1538.827489363832</v>
+        <v>989.97001820029</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>908.8261293617865</v>
+        <v>931.3020856891679</v>
       </c>
       <c r="C9" t="n">
-        <v>734.3731000806595</v>
+        <v>756.849056408041</v>
       </c>
       <c r="D9" t="n">
-        <v>585.4386904194082</v>
+        <v>607.9146467467897</v>
       </c>
       <c r="E9" t="n">
-        <v>426.2012354139526</v>
+        <v>448.6771917413342</v>
       </c>
       <c r="F9" t="n">
-        <v>279.6666774408376</v>
+        <v>302.1426337682192</v>
       </c>
       <c r="G9" t="n">
-        <v>142.9057625205136</v>
+        <v>165.3817188478953</v>
       </c>
       <c r="H9" t="n">
-        <v>48.56181514970404</v>
+        <v>71.03777147708581</v>
       </c>
       <c r="I9" t="n">
-        <v>48.56181514970404</v>
+        <v>48.56181514970449</v>
       </c>
       <c r="J9" t="n">
-        <v>230.232376407934</v>
+        <v>230.2323764079354</v>
       </c>
       <c r="K9" t="n">
-        <v>667.3571447743225</v>
+        <v>534.642411312477</v>
       </c>
       <c r="L9" t="n">
-        <v>949.3977948262753</v>
+        <v>816.6830613644321</v>
       </c>
       <c r="M9" t="n">
-        <v>1393.86165990613</v>
+        <v>1165.168065149292</v>
       </c>
       <c r="N9" t="n">
-        <v>1765.978669707428</v>
+        <v>1537.285074950594</v>
       </c>
       <c r="O9" t="n">
-        <v>2084.173239518113</v>
+        <v>1855.47964476128</v>
       </c>
       <c r="P9" t="n">
-        <v>2320.219368076715</v>
+        <v>2091.525773319884</v>
       </c>
       <c r="Q9" t="n">
-        <v>2428.090757485202</v>
+        <v>2407.373677586862</v>
       </c>
       <c r="R9" t="n">
-        <v>2428.090757485202</v>
+        <v>2428.090757485224</v>
       </c>
       <c r="S9" t="n">
-        <v>2291.263636422938</v>
+        <v>2291.263636422961</v>
       </c>
       <c r="T9" t="n">
-        <v>2097.01716347819</v>
+        <v>2232.612705528471</v>
       </c>
       <c r="U9" t="n">
-        <v>1982.042730312285</v>
+        <v>2004.518686639667</v>
       </c>
       <c r="V9" t="n">
-        <v>1746.890622080543</v>
+        <v>1769.366578407924</v>
       </c>
       <c r="W9" t="n">
-        <v>1492.653265352341</v>
+        <v>1515.129221679723</v>
       </c>
       <c r="X9" t="n">
-        <v>1284.801765146808</v>
+        <v>1307.27772147419</v>
       </c>
       <c r="Y9" t="n">
-        <v>1077.041466381854</v>
+        <v>1099.517422709236</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>197.7442492577016</v>
+        <v>450.7437995244486</v>
       </c>
       <c r="C10" t="n">
-        <v>197.7442492577016</v>
+        <v>450.7437995244486</v>
       </c>
       <c r="D10" t="n">
-        <v>197.7442492577016</v>
+        <v>364.5112598827816</v>
       </c>
       <c r="E10" t="n">
-        <v>197.7442492577016</v>
+        <v>216.5981663003885</v>
       </c>
       <c r="F10" t="n">
-        <v>197.7442492577016</v>
+        <v>216.5981663003885</v>
       </c>
       <c r="G10" t="n">
-        <v>197.7442492577016</v>
+        <v>48.56181514970449</v>
       </c>
       <c r="H10" t="n">
-        <v>48.56181514970404</v>
+        <v>48.56181514970449</v>
       </c>
       <c r="I10" t="n">
-        <v>48.56181514970404</v>
+        <v>48.56181514970449</v>
       </c>
       <c r="J10" t="n">
-        <v>70.57420224187615</v>
+        <v>70.5742022418772</v>
       </c>
       <c r="K10" t="n">
-        <v>236.5841528860236</v>
+        <v>236.5841528860256</v>
       </c>
       <c r="L10" t="n">
-        <v>504.5461690879206</v>
+        <v>504.5461690879238</v>
       </c>
       <c r="M10" t="n">
-        <v>797.4636672202989</v>
+        <v>797.4636672203035</v>
       </c>
       <c r="N10" t="n">
-        <v>1088.850858371743</v>
+        <v>1088.850858371748</v>
       </c>
       <c r="O10" t="n">
-        <v>1341.977796269157</v>
+        <v>1341.977796269164</v>
       </c>
       <c r="P10" t="n">
-        <v>1535.050938441305</v>
+        <v>1535.050938441313</v>
       </c>
       <c r="Q10" t="n">
-        <v>1585.289694158854</v>
+        <v>1585.289694158863</v>
       </c>
       <c r="R10" t="n">
-        <v>1585.289694158854</v>
+        <v>1480.463211074182</v>
       </c>
       <c r="S10" t="n">
-        <v>1585.289694158854</v>
+        <v>1480.463211074182</v>
       </c>
       <c r="T10" t="n">
-        <v>1585.289694158854</v>
+        <v>1257.271579035169</v>
       </c>
       <c r="U10" t="n">
-        <v>1296.168635583113</v>
+        <v>968.1505204594265</v>
       </c>
       <c r="V10" t="n">
-        <v>1041.484147377226</v>
+        <v>968.1505204594265</v>
       </c>
       <c r="W10" t="n">
-        <v>752.0669773402649</v>
+        <v>678.7333504224659</v>
       </c>
       <c r="X10" t="n">
-        <v>524.0774264422475</v>
+        <v>450.7437995244486</v>
       </c>
       <c r="Y10" t="n">
-        <v>379.3927140879413</v>
+        <v>450.7437995244486</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,19 +5051,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511905</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487571</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510512</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.38585385471</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V13" t="n">
-        <v>1640.408734861921</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W13" t="n">
-        <v>1350.99156482496</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.99156482496</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273906</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921476</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898186995</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958739</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>633.992644467967</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>633.992644467967</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>486.0795508855739</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1896033876635</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261136</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206044</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926976</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803618</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979687</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1192.200273794374</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508442</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,46 +5744,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>266.4891497944943</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>119.599202296584</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.6673633290469</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>699.73118040114</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6446,19 +6446,19 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>924.8344286397182</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1552.432392194325</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6880,13 +6880,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6926,61 +6926,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954154</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7111,19 +7111,19 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7199,7 +7199,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,10 +7208,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7327,7 +7327,7 @@
         <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,19 +7351,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7433,28 +7433,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273905</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380726</v>
@@ -7612,7 +7612,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N45" t="n">
-        <v>1522.21291626627</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380723</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
         <v>1483.79828551875</v>
@@ -7849,7 +7849,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60.49244923701501</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>60.49244923701494</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
-        <v>72.85507260968012</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>72.85507260968015</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127267</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>130.4099506874791</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>96.94834474242089</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>24.59532647964276</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K20" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22553,10 +22553,10 @@
         <v>99.59766369738071</v>
       </c>
       <c r="E2" t="n">
-        <v>364.9245277387906</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>12.9169039459368</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>94.15559079411076</v>
       </c>
       <c r="X2" t="n">
-        <v>145.0518998036245</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>131.1525607327513</v>
+        <v>301.9682575933629</v>
       </c>
     </row>
     <row r="3">
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>31.17527673479475</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>31.43762041328876</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>114.9050759439393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>172.2294825375397</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>204.6402955209671</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>144.1654765207635</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>47.43691740069056</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.3785887617862</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="23">
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.9994244361429</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>133.8601746357976</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84626.07044716086</v>
+        <v>84626.07044716089</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="D2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="E2" t="n">
         <v>100893.3249612508</v>
       </c>
       <c r="F2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
         <v>100893.3249612508</v>
@@ -26332,16 +26332,16 @@
         <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
+        <v>100893.3249612508</v>
+      </c>
+      <c r="J2" t="n">
         <v>100893.3249612507</v>
-      </c>
-      <c r="J2" t="n">
-        <v>100893.3249612508</v>
       </c>
       <c r="K2" t="n">
         <v>100893.3249612507</v>
       </c>
       <c r="L2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330355</v>
@@ -26350,10 +26350,10 @@
         <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="P2" t="n">
         <v>102630.2212330354</v>
-      </c>
-      <c r="P2" t="n">
-        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>657366.2625808548</v>
       </c>
       <c r="C3" t="n">
-        <v>21526.81581402961</v>
+        <v>21526.81581402947</v>
       </c>
       <c r="D3" t="n">
-        <v>357247.774845689</v>
+        <v>357247.7748456949</v>
       </c>
       <c r="E3" t="n">
-        <v>539509.6920798735</v>
+        <v>539509.6920798678</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>66741.55862136451</v>
       </c>
       <c r="K3" t="n">
-        <v>2220.700322863209</v>
+        <v>2220.700322863165</v>
       </c>
       <c r="L3" t="n">
-        <v>106316.0878658423</v>
+        <v>106316.0878658439</v>
       </c>
       <c r="M3" t="n">
-        <v>140971.1139454993</v>
+        <v>140971.1139454977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169849.0966935768</v>
+        <v>169849.096693577</v>
       </c>
       <c r="C4" t="n">
-        <v>246753.8673982313</v>
+        <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
-        <v>144085.4293086938</v>
+        <v>144085.4293086921</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426732009</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426732</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731998</v>
+        <v>8117.312426732007</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731959</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
+        <v>16108.17168982546</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16108.17168982556</v>
+      </c>
+      <c r="N4" t="n">
         <v>16108.17168982547</v>
       </c>
-      <c r="M4" t="n">
-        <v>16108.17168982545</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16108.17168982546</v>
-      </c>
       <c r="O4" t="n">
-        <v>16108.17168982543</v>
+        <v>16108.17168982551</v>
       </c>
       <c r="P4" t="n">
-        <v>16108.17168982548</v>
+        <v>16108.17168982552</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>62074.5699651066</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>90300.14304378137</v>
+        <v>90300.14304378182</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-804663.8587923773</v>
+        <v>-805023.941808095</v>
       </c>
       <c r="C6" t="n">
-        <v>-228698.2651834917</v>
+        <v>-228698.2651834916</v>
       </c>
       <c r="D6" t="n">
-        <v>-489003.1259651288</v>
+        <v>-489003.1259651333</v>
       </c>
       <c r="E6" t="n">
-        <v>-547856.2093692619</v>
+        <v>-547890.9472946918</v>
       </c>
       <c r="F6" t="n">
-        <v>-8346.517289388357</v>
+        <v>-8381.255214823992</v>
       </c>
       <c r="G6" t="n">
-        <v>-8346.517289388357</v>
+        <v>-8381.255214824007</v>
       </c>
       <c r="H6" t="n">
-        <v>-8346.517289388314</v>
+        <v>-8381.255214824021</v>
       </c>
       <c r="I6" t="n">
-        <v>-8346.517289388357</v>
+        <v>-8381.255214824036</v>
       </c>
       <c r="J6" t="n">
-        <v>-75088.07591075281</v>
+        <v>-75122.81383618854</v>
       </c>
       <c r="K6" t="n">
-        <v>-10567.21761225154</v>
+        <v>-10601.9555376872</v>
       </c>
       <c r="L6" t="n">
-        <v>-122958.1541765476</v>
+        <v>-122958.1541765493</v>
       </c>
       <c r="M6" t="n">
-        <v>-157613.1802562047</v>
+        <v>-157613.1802562031</v>
       </c>
       <c r="N6" t="n">
         <v>-16642.06631070544</v>
       </c>
       <c r="O6" t="n">
-        <v>-16642.06631070543</v>
+        <v>-16642.06631070541</v>
       </c>
       <c r="P6" t="n">
-        <v>-16642.06631070543</v>
+        <v>-16642.06631070547</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>906.6772261470783</v>
+        <v>906.6772261470829</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,22 +26790,22 @@
         <v>255.0853779233022</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>607.0226893713004</v>
+        <v>607.0226893713061</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>20.5789134314133</v>
+        <v>20.57891343141318</v>
       </c>
       <c r="D3" t="n">
-        <v>292.6222123775999</v>
+        <v>292.6222123776047</v>
       </c>
       <c r="E3" t="n">
-        <v>461.2982741945957</v>
+        <v>461.2982741945908</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>255.0853779233022</v>
       </c>
       <c r="C4" t="n">
-        <v>8.628502078204008</v>
+        <v>8.628502078203894</v>
       </c>
       <c r="D4" t="n">
-        <v>343.3088093697941</v>
+        <v>343.3088093697999</v>
       </c>
       <c r="E4" t="n">
-        <v>565.6855987283482</v>
+        <v>565.6855987283423</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>255.0853779233023</v>
       </c>
       <c r="K4" t="n">
-        <v>8.628502078204008</v>
+        <v>8.628502078203837</v>
       </c>
       <c r="L4" t="n">
-        <v>343.3088093697941</v>
+        <v>343.3088093698001</v>
       </c>
       <c r="M4" t="n">
-        <v>565.6855987283482</v>
+        <v>565.6855987283416</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>255.0853779233022</v>
       </c>
       <c r="K4" t="n">
-        <v>8.628502078204008</v>
+        <v>8.628502078203894</v>
       </c>
       <c r="L4" t="n">
-        <v>343.3088093697941</v>
+        <v>343.3088093697999</v>
       </c>
       <c r="M4" t="n">
-        <v>565.6855987283482</v>
+        <v>565.6855987283423</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>17.00584233347115</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>90.30589340154054</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>94.15559079411076</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>113.1275785776677</v>
       </c>
       <c r="G3" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>144.5588826350551</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>157.4429920733174</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695013</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>162.4853592126452</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27667,22 +27667,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862865</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>369.4518511637872</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>29.99083095790476</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27752,13 +27752,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>193.0135185557281</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>128.2537946792525</v>
+        <v>48.08444134425213</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>213.3234844704115</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>69.95458801850543</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>73.51582211511052</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.1401528507289</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>22.25119676410786</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,10 +27983,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>134.2395866297559</v>
       </c>
       <c r="U9" t="n">
-        <v>111.9883898656711</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>63.24525877296202</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3559876391771</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.6906097669175</v>
       </c>
       <c r="I10" t="n">
-        <v>106.2818148601347</v>
+        <v>106.2818148601345</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>103.7782182538343</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>195.523151438219</v>
+        <v>195.5231514382189</v>
       </c>
       <c r="T10" t="n">
-        <v>220.9597157186237</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>75.3467881213316</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29050,10 +29050,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.644933572450563</v>
+        <v>3.644933572450582</v>
       </c>
       <c r="H8" t="n">
-        <v>37.32867594885934</v>
+        <v>37.32867594885953</v>
       </c>
       <c r="I8" t="n">
-        <v>140.5213015519005</v>
+        <v>140.5213015519012</v>
       </c>
       <c r="J8" t="n">
-        <v>309.3591807947763</v>
+        <v>309.3591807947778</v>
       </c>
       <c r="K8" t="n">
-        <v>463.6492189166087</v>
+        <v>463.6492189166111</v>
       </c>
       <c r="L8" t="n">
-        <v>575.1978547344927</v>
+        <v>575.1978547344956</v>
       </c>
       <c r="M8" t="n">
-        <v>640.0184421535604</v>
+        <v>640.0184421535637</v>
       </c>
       <c r="N8" t="n">
-        <v>650.3746096662857</v>
+        <v>650.374609666289</v>
       </c>
       <c r="O8" t="n">
-        <v>614.1303014552303</v>
+        <v>614.1303014552335</v>
       </c>
       <c r="P8" t="n">
-        <v>524.1460038853569</v>
+        <v>524.1460038853596</v>
       </c>
       <c r="Q8" t="n">
-        <v>393.611820321971</v>
+        <v>393.611820321973</v>
       </c>
       <c r="R8" t="n">
-        <v>228.9610585204479</v>
+        <v>228.9610585204491</v>
       </c>
       <c r="S8" t="n">
-        <v>83.05892378221729</v>
+        <v>83.05892378221772</v>
       </c>
       <c r="T8" t="n">
-        <v>15.95569671340235</v>
+        <v>15.95569671340243</v>
       </c>
       <c r="U8" t="n">
-        <v>0.291594685796045</v>
+        <v>0.2915946857960465</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.950211392089942</v>
+        <v>1.950211392089952</v>
       </c>
       <c r="H9" t="n">
-        <v>18.83493633939497</v>
+        <v>18.83493633939507</v>
       </c>
       <c r="I9" t="n">
-        <v>67.14543608730722</v>
+        <v>67.14543608730757</v>
       </c>
       <c r="J9" t="n">
-        <v>184.2522087588134</v>
+        <v>184.2522087588143</v>
       </c>
       <c r="K9" t="n">
-        <v>314.9163720288395</v>
+        <v>314.9163720288411</v>
       </c>
       <c r="L9" t="n">
-        <v>423.4439252868973</v>
+        <v>423.4439252868995</v>
       </c>
       <c r="M9" t="n">
-        <v>494.1390882501576</v>
+        <v>494.1390882501601</v>
       </c>
       <c r="N9" t="n">
-        <v>507.2174795593924</v>
+        <v>507.217479559395</v>
       </c>
       <c r="O9" t="n">
-        <v>464.0049008188732</v>
+        <v>464.0049008188756</v>
       </c>
       <c r="P9" t="n">
-        <v>372.4048403018066</v>
+        <v>372.4048403018085</v>
       </c>
       <c r="Q9" t="n">
-        <v>248.9427734885337</v>
+        <v>248.942773488535</v>
       </c>
       <c r="R9" t="n">
-        <v>121.0841774843212</v>
+        <v>121.0841774843218</v>
       </c>
       <c r="S9" t="n">
-        <v>36.22432125219692</v>
+        <v>36.22432125219711</v>
       </c>
       <c r="T9" t="n">
-        <v>7.860720479520421</v>
+        <v>7.860720479520461</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1283033810585489</v>
+        <v>0.1283033810585495</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.634991719281616</v>
+        <v>1.634991719281625</v>
       </c>
       <c r="H10" t="n">
-        <v>14.53656274052202</v>
+        <v>14.53656274052209</v>
       </c>
       <c r="I10" t="n">
-        <v>49.16866006712353</v>
+        <v>49.16866006712379</v>
       </c>
       <c r="J10" t="n">
-        <v>115.5939145532103</v>
+        <v>115.5939145532109</v>
       </c>
       <c r="K10" t="n">
-        <v>189.956310658355</v>
+        <v>189.956310658356</v>
       </c>
       <c r="L10" t="n">
-        <v>243.0786779739232</v>
+        <v>243.0786779739245</v>
       </c>
       <c r="M10" t="n">
-        <v>256.2923837779355</v>
+        <v>256.2923837779368</v>
       </c>
       <c r="N10" t="n">
-        <v>250.1983237333406</v>
+        <v>250.1983237333419</v>
       </c>
       <c r="O10" t="n">
-        <v>231.0986477399144</v>
+        <v>231.0986477399155</v>
       </c>
       <c r="P10" t="n">
-        <v>197.7448166665692</v>
+        <v>197.7448166665702</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.9082611482088</v>
+        <v>136.9082611482095</v>
       </c>
       <c r="R10" t="n">
-        <v>73.5151731233352</v>
+        <v>73.51517312333559</v>
       </c>
       <c r="S10" t="n">
-        <v>28.49344659875325</v>
+        <v>28.4934465987534</v>
       </c>
       <c r="T10" t="n">
-        <v>6.985873709657814</v>
+        <v>6.98587370965785</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08918136650627009</v>
+        <v>0.08918136650627055</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>361.1081696176606</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>301.6445156724565</v>
+        <v>514.695376254093</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>506.5895320981981</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>550.2163373881178</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,13 +33758,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>150.2061940096332</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>520.3372160854087</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705384</v>
+        <v>81.94118660406885</v>
       </c>
       <c r="K2" t="n">
         <v>83.39712583292157</v>
@@ -34711,7 +34711,7 @@
         <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>232.3803535975801</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P2" t="n">
         <v>111.8528537874005</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>141.145799542364</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L3" t="n">
-        <v>138.615755571408</v>
+        <v>211.4708281810882</v>
       </c>
       <c r="M3" t="n">
         <v>181.3104407622271</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>245.5483596572286</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35030,10 +35030,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250137</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>128.31327626809</v>
+        <v>128.3132762680916</v>
       </c>
       <c r="K8" t="n">
-        <v>243.5593678716281</v>
+        <v>243.5593678716305</v>
       </c>
       <c r="L8" t="n">
-        <v>339.4314397645055</v>
+        <v>339.4314397645084</v>
       </c>
       <c r="M8" t="n">
-        <v>409.6722089262877</v>
+        <v>409.672208926291</v>
       </c>
       <c r="N8" t="n">
-        <v>420.9615460696947</v>
+        <v>420.961546069698</v>
       </c>
       <c r="O8" t="n">
-        <v>384.0320900335436</v>
+        <v>384.0320900335468</v>
       </c>
       <c r="P8" t="n">
-        <v>292.9130081300873</v>
+        <v>292.9130081300901</v>
       </c>
       <c r="Q8" t="n">
-        <v>171.3061304475216</v>
+        <v>171.3061304475235</v>
       </c>
       <c r="R8" t="n">
-        <v>13.37552070631577</v>
+        <v>13.37552070631693</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>183.5056174325555</v>
+        <v>183.5056174325564</v>
       </c>
       <c r="K9" t="n">
-        <v>441.5401700670591</v>
+        <v>307.4848837419612</v>
       </c>
       <c r="L9" t="n">
-        <v>284.8895455070231</v>
+        <v>284.8895455070253</v>
       </c>
       <c r="M9" t="n">
-        <v>448.9533990705602</v>
+        <v>352.0050543281418</v>
       </c>
       <c r="N9" t="n">
-        <v>375.8757674760591</v>
+        <v>375.8757674760617</v>
       </c>
       <c r="O9" t="n">
-        <v>321.4086563744287</v>
+        <v>321.4086563744311</v>
       </c>
       <c r="P9" t="n">
-        <v>238.4304328874763</v>
+        <v>238.4304328874783</v>
       </c>
       <c r="Q9" t="n">
-        <v>108.9609994025122</v>
+        <v>319.0382871383625</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.92634333167867</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.23473443653749</v>
+        <v>22.23473443653809</v>
       </c>
       <c r="K10" t="n">
-        <v>167.6868188324722</v>
+        <v>167.6868188324731</v>
       </c>
       <c r="L10" t="n">
-        <v>270.6687032342394</v>
+        <v>270.6687032342406</v>
       </c>
       <c r="M10" t="n">
-        <v>295.8762607397761</v>
+        <v>295.8762607397774</v>
       </c>
       <c r="N10" t="n">
-        <v>294.3304961125692</v>
+        <v>294.3304961125705</v>
       </c>
       <c r="O10" t="n">
-        <v>255.6837756539541</v>
+        <v>255.6837756539552</v>
       </c>
       <c r="P10" t="n">
-        <v>195.0233759314627</v>
+        <v>195.0233759314637</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.74621789651444</v>
+        <v>50.74621789651512</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899105</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>222.5537898377864</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35899,7 +35899,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367785</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>235.501032152577</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>159.048271228012</v>
+        <v>372.0991318096486</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>368.0351523183239</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>416.2419299737876</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,13 +37227,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>18.86448192629984</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>377.7409716409642</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
